--- a/工作清单.xlsx
+++ b/工作清单.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="3180" windowWidth="24000" windowHeight="13760"/>
+    <workbookView xWindow="6740" yWindow="4880" windowWidth="22240" windowHeight="13780"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>处理星星少儿方面反映的问题</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.处理星星少儿方面反映的问题 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.处理星星少儿方面反映的问题 2.saas 订单页面活动选择功能</t>
     <rPh sb="25" eb="26">
       <t>ye'mian</t>
@@ -142,6 +134,35 @@
     <rPh sb="31" eb="32">
       <t>gon'nen</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.处理星星少儿方面反映的问题 2.模板修整 3.saas 数据查询静态页面制作</t>
+    <rPh sb="18" eb="19">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiu'zhen</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jin'tai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi'zuo</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -259,33 +280,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,13 +290,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -322,7 +368,19 @@
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -335,7 +393,20 @@
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -349,30 +420,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -425,15 +473,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A6:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A6:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A6:C13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A6:C13"/>
   <sortState ref="A7:C11">
     <sortCondition ref="A6:A11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="2"/>
-    <tableColumn id="2" name="主要工作" dataDxfId="1"/>
-    <tableColumn id="3" name="其他" dataDxfId="0"/>
+    <tableColumn id="1" name="日期" dataDxfId="4"/>
+    <tableColumn id="2" name="主要工作" dataDxfId="3"/>
+    <tableColumn id="3" name="其他" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -711,131 +759,174 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="12" customWidth="1"/>
-    <col min="2" max="2" width="79.3984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>42910</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>42911</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>42912</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>42913</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>42910</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>42911</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>42912</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>42913</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>42914</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+      <c r="C11" s="10"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <v>42915</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>42916</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.36" bottom="0.2" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/工作清单.xlsx
+++ b/工作清单.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>每日工作记录</t>
     <rPh sb="0" eb="1">
@@ -137,32 +137,30 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1.处理星星少儿方面反映的问题 2.模板修整 3.saas 数据查询静态页面制作</t>
-    <rPh sb="18" eb="19">
+    <t>日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.saas 数据查询静态页面制作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.处理星星少儿方面反映的问题 2.saas模板修整 3.saas 登录功能对接</t>
+    <rPh sb="22" eb="23">
       <t>mo'ban</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="24" eb="25">
       <t>xiu'zhen</t>
     </rPh>
-    <rPh sb="30" eb="31">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>cha'xun</t>
-    </rPh>
     <rPh sb="34" eb="35">
-      <t>jin'tai</t>
+      <t>den'lu</t>
     </rPh>
     <rPh sb="36" eb="37">
-      <t>ye'mian</t>
+      <t>gon'nen</t>
     </rPh>
     <rPh sb="38" eb="39">
-      <t>zhi'zuo</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
+      <t>dui'jie</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -368,31 +366,6 @@
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -421,6 +394,31 @@
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -473,15 +471,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A6:C13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks" displayName="Tasks" ref="A6:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A6:C13"/>
   <sortState ref="A7:C11">
     <sortCondition ref="A6:A11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="4"/>
-    <tableColumn id="2" name="主要工作" dataDxfId="3"/>
-    <tableColumn id="3" name="其他" dataDxfId="2"/>
+    <tableColumn id="1" name="日期" dataDxfId="2"/>
+    <tableColumn id="2" name="主要工作" dataDxfId="1"/>
+    <tableColumn id="3" name="其他" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -812,7 +810,7 @@
     </row>
     <row r="6" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>2</v>
@@ -877,7 +875,7 @@
         <v>42914</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="17"/>
@@ -887,7 +885,9 @@
       <c r="A12" s="9">
         <v>42915</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="17"/>
       <c r="E12" s="13"/>

--- a/工作清单.xlsx
+++ b/工作清单.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>每日工作记录</t>
     <rPh sb="0" eb="1">
@@ -141,10 +141,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1.saas 数据查询静态页面制作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.处理星星少儿方面反映的问题 2.saas模板修整 3.saas 登录功能对接</t>
     <rPh sb="22" eb="23">
       <t>mo'ban</t>
@@ -160,6 +156,48 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>dui'jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.saas 数据查询页面制作 2.登录接口调整</t>
+    <rPh sb="18" eb="19">
+      <t>den'lu'jie'kou'tiao'zhen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.处理saas小bug 2.调整星星少儿 3.宣传页修改</t>
+    <rPh sb="2" eb="3">
+      <t>cu'li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>t'zen</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xin'xin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shao'er</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xuan'cuan'ye</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xui'gai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小图加载研发</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'fa</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -760,7 +798,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -875,7 +913,7 @@
         <v>42914</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="17"/>
@@ -886,7 +924,7 @@
         <v>42915</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="17"/>
@@ -896,8 +934,12 @@
       <c r="A13" s="9">
         <v>42916</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="13"/>
     </row>
